--- a/src/tests/test_excel.xlsx
+++ b/src/tests/test_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrewharris.2374\Documents\GitHub\srmjg\src\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0E86A6-2E5D-4114-BCF8-770FDF353722}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7D2B85-73B2-440B-8C7C-F30BEA4318A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24525" xr2:uid="{16095925-B855-4755-A6DC-31FCA91E431C}"/>
   </bookViews>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
-  <si>
-    <t>SampleID</t>
-  </si>
-  <si>
-    <t>SampleSRR</t>
-  </si>
-  <si>
-    <t>SampleR1</t>
-  </si>
-  <si>
-    <t>SampleR2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>ReferenceID</t>
   </si>
@@ -45,40 +33,64 @@
     <t>ReferencePath</t>
   </si>
   <si>
-    <t>Sample1</t>
-  </si>
-  <si>
     <t>SRR12345</t>
   </si>
   <si>
-    <t>Sample1_R1.fasta</t>
-  </si>
-  <si>
-    <t>Sample1_R2.fasta</t>
-  </si>
-  <si>
-    <t>RefSample1</t>
-  </si>
-  <si>
-    <t>RefSample1.fasta</t>
-  </si>
-  <si>
-    <t>Sample2</t>
-  </si>
-  <si>
-    <t>SRR12346</t>
-  </si>
-  <si>
-    <t>Sample2_R1.fasta</t>
-  </si>
-  <si>
-    <t>Sample2_R2.fasta</t>
-  </si>
-  <si>
-    <t>RefSample2</t>
-  </si>
-  <si>
-    <t>RefSample2.fasta</t>
+    <t>QueryID</t>
+  </si>
+  <si>
+    <t>QeryLibID</t>
+  </si>
+  <si>
+    <t>QueryRun</t>
+  </si>
+  <si>
+    <t>QueryR1</t>
+  </si>
+  <si>
+    <t>QueryR2</t>
+  </si>
+  <si>
+    <t>Query1</t>
+  </si>
+  <si>
+    <t>Query1LibA</t>
+  </si>
+  <si>
+    <t>Query1_R1.fasta</t>
+  </si>
+  <si>
+    <t>Query1_R2.fasta</t>
+  </si>
+  <si>
+    <t>RefQuery1</t>
+  </si>
+  <si>
+    <t>RefQuery1.fasta</t>
+  </si>
+  <si>
+    <t>Query2</t>
+  </si>
+  <si>
+    <t>Query2LibA</t>
+  </si>
+  <si>
+    <t>Query2_R1.fasta</t>
+  </si>
+  <si>
+    <t>Query2_R2.fasta</t>
+  </si>
+  <si>
+    <t>Query1LibB</t>
+  </si>
+  <si>
+    <t>RefQuery2</t>
+  </si>
+  <si>
+    <t>RefQuery2.fasta</t>
+  </si>
+  <si>
+    <t>Query2LibB</t>
   </si>
 </sst>
 </file>
@@ -430,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE9ED49-D81E-4CF7-B690-D6E4B3CF91B5}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,104 +457,119 @@
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
